--- a/data/finaljuryvotes.xlsx
+++ b/data/finaljuryvotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matttsang/Desktop/ANLY645/ANLY_645_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D98A2AF-4EA0-AC49-A256-53E7F83EB73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D3CF9E-6B1A-3D45-8296-1ECF65514FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2840" windowWidth="27640" windowHeight="15300" xr2:uid="{AE1DE5E6-78FB-1F49-A80C-E2F32F8D0DF3}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="15300" xr2:uid="{AE1DE5E6-78FB-1F49-A80C-E2F32F8D0DF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAECB87-BFBC-024C-A3F6-97492745A96D}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -513,7 +513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -523,8 +523,11 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -534,8 +537,11 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -545,8 +551,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -556,8 +565,11 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -567,8 +579,11 @@
       <c r="C6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -578,8 +593,11 @@
       <c r="C7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -589,8 +607,11 @@
       <c r="C8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>19</v>
       </c>
@@ -600,8 +621,11 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -611,8 +635,11 @@
       <c r="C10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>19</v>
       </c>
@@ -622,8 +649,11 @@
       <c r="C11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>19</v>
       </c>
@@ -633,8 +663,11 @@
       <c r="C12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>19</v>
       </c>
@@ -644,8 +677,11 @@
       <c r="C13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>19</v>
       </c>
@@ -655,8 +691,11 @@
       <c r="C14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>19</v>
       </c>
@@ -666,8 +705,11 @@
       <c r="C15" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>19</v>
       </c>
@@ -677,8 +719,11 @@
       <c r="C16" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>19</v>
       </c>
@@ -688,8 +733,11 @@
       <c r="C17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -699,8 +747,11 @@
       <c r="C18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>36</v>
       </c>
@@ -710,8 +761,11 @@
       <c r="C19" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>36</v>
       </c>
@@ -721,8 +775,11 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>36</v>
       </c>
@@ -732,8 +789,11 @@
       <c r="C21" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>36</v>
       </c>
@@ -743,8 +803,11 @@
       <c r="C22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>36</v>
       </c>
@@ -754,8 +817,11 @@
       <c r="C23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>36</v>
       </c>
@@ -765,8 +831,11 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>36</v>
       </c>
@@ -776,8 +845,11 @@
       <c r="C25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>36</v>
       </c>
@@ -787,8 +859,11 @@
       <c r="C26" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>36</v>
       </c>
@@ -798,8 +873,11 @@
       <c r="C27" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>36</v>
       </c>
@@ -808,6 +886,9 @@
       </c>
       <c r="C28" t="s">
         <v>30</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
